--- a/src/offshore_bounds/offshore_MERRA_Format_Bounds.xlsx
+++ b/src/offshore_bounds/offshore_MERRA_Format_Bounds.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:AL36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,60 @@
       <c r="T1" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -519,22 +573,22 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -552,6 +606,60 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -578,22 +686,22 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -614,6 +722,60 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -637,25 +799,25 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -676,6 +838,60 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -693,28 +909,28 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -738,6 +954,60 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -755,25 +1025,25 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -800,6 +1070,60 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -817,19 +1141,19 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -862,6 +1186,60 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,16 +1254,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -924,6 +1302,60 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -935,19 +1367,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -986,6 +1418,60 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -997,16 +1483,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1048,6 +1534,60 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1059,13 +1599,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1110,6 +1650,60 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1121,16 +1715,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1172,6 +1766,60 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1180,16 +1828,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1234,6 +1882,60 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1245,10 +1947,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1296,6 +1998,60 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1307,10 +2063,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1358,6 +2114,60 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1369,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1420,6 +2230,60 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1431,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1482,6 +2346,60 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1490,7 +2408,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1544,6 +2462,60 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1555,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1606,6 +2578,2032 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
         <v>0</v>
       </c>
     </row>

--- a/src/offshore_bounds/offshore_MERRA_Format_Bounds.xlsx
+++ b/src/offshore_bounds/offshore_MERRA_Format_Bounds.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL36"/>
+  <dimension ref="A1:AM38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,9 @@
       <c r="AL1" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="AM1" s="1" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -591,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -603,10 +606,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -660,6 +663,9 @@
         <v>0</v>
       </c>
       <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -704,10 +710,10 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -776,6 +782,9 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -820,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -892,6 +901,9 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -933,10 +945,10 @@
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1008,6 +1020,9 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1037,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -1046,10 +1061,10 @@
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1124,6 +1139,9 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1159,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1240,6 +1258,9 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,13 +1287,13 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1356,6 +1377,9 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1472,6 +1496,9 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1495,10 +1522,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1588,6 +1615,9 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1608,10 +1638,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1704,6 +1734,9 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1822,6 +1855,9 @@
       <c r="AL12" t="n">
         <v>0</v>
       </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1840,10 +1876,10 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1936,6 +1972,9 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1953,10 +1992,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2052,6 +2091,9 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2069,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -2168,6 +2210,9 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2182,10 +2227,10 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -2284,6 +2329,9 @@
         <v>0</v>
       </c>
       <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2298,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2400,6 +2448,9 @@
         <v>0</v>
       </c>
       <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2411,10 +2462,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -2516,6 +2567,9 @@
         <v>0</v>
       </c>
       <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2524,10 +2578,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2632,6 +2686,9 @@
         <v>0</v>
       </c>
       <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2750,6 +2807,9 @@
       <c r="AL20" t="n">
         <v>0</v>
       </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2759,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2864,6 +2924,9 @@
         <v>0</v>
       </c>
       <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2875,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2980,6 +3043,9 @@
         <v>0</v>
       </c>
       <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2988,10 +3054,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -3096,6 +3162,9 @@
         <v>0</v>
       </c>
       <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3104,7 +3173,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -3212,6 +3281,9 @@
         <v>0</v>
       </c>
       <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3330,6 +3402,9 @@
       <c r="AL25" t="n">
         <v>0</v>
       </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3339,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -3444,6 +3519,9 @@
         <v>0</v>
       </c>
       <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3455,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -3560,6 +3638,9 @@
         <v>0</v>
       </c>
       <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3571,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3676,6 +3757,9 @@
         <v>0</v>
       </c>
       <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3687,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -3792,6 +3876,9 @@
         <v>0</v>
       </c>
       <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3803,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -3908,6 +3995,9 @@
         <v>0</v>
       </c>
       <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3919,7 +4009,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4024,6 +4114,9 @@
         <v>0</v>
       </c>
       <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4035,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -4140,6 +4233,9 @@
         <v>0</v>
       </c>
       <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4151,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -4256,6 +4352,9 @@
         <v>0</v>
       </c>
       <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4264,16 +4363,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -4372,6 +4471,9 @@
         <v>0</v>
       </c>
       <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,13 +4488,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -4488,6 +4590,9 @@
         <v>0</v>
       </c>
       <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4496,16 +4601,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -4604,6 +4709,247 @@
         <v>0</v>
       </c>
       <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="n">
         <v>0</v>
       </c>
     </row>
